--- a/Doc/Project Outputs for 2414_TesteurDeSprinkler_SPB7/2414_TesteurDeSprinkler_SPB7.xlsx
+++ b/Doc/Project Outputs for 2414_TesteurDeSprinkler_SPB7/2414_TesteurDeSprinkler_SPB7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\2414_TesteurDeSprinkler_SPB7 - Copy\Project Outputs for 2414_TesteurDeSprinkler_SPB7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ACL\dev\2414_SPB7_DOC\Doc\Project Outputs for 2414_TesteurDeSprinkler_SPB7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B38618-287C-423C-8A1D-91A0A4B5BC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E945ED0-F07C-44FB-B433-5A8C80592300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23430" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25575" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Cost Report" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="300">
   <si>
     <t>Approved</t>
   </si>
@@ -155,7 +155,7 @@
     <t>2414_TesteurDeSprinkler_SPB7.PrjPcb</t>
   </si>
   <si>
-    <t>12.06.2025</t>
+    <t>13.06.2025</t>
   </si>
   <si>
     <t>1</t>
@@ -176,10 +176,46 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>C15, C17, C25, C31</t>
+  </si>
+  <si>
+    <t>R27, R28</t>
+  </si>
+  <si>
+    <t>C29, C36</t>
+  </si>
+  <si>
+    <t>R3, R29, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50</t>
+  </si>
+  <si>
+    <t>R1, R31, R32, R59, R60, R61, R62, R63, R64, R66, R67, R68</t>
+  </si>
+  <si>
+    <t>C14, C16, C32</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C3, C26</t>
+  </si>
+  <si>
     <t>C1, C2</t>
   </si>
   <si>
-    <t>C3, C26</t>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R33, R34</t>
+  </si>
+  <si>
+    <t>C33, C34</t>
   </si>
   <si>
     <t>C4, C5, C6, C8, C9, C10, C11, C12, C27, C35, C37</t>
@@ -188,517 +224,502 @@
     <t>C7</t>
   </si>
   <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R7, R9, R10, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R23, R24, R25</t>
+  </si>
+  <si>
+    <t>R51, R52, R53, R54, R56, R57, R58, R65, R73, R74, R75, R76, R77</t>
+  </si>
+  <si>
+    <t>R5, R6, R22</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D28</t>
+  </si>
+  <si>
+    <t>J15, J30</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6, J7, J8, J9, J10, J11, J13, J14, J21, J22, J25, J26</t>
+  </si>
+  <si>
+    <t>J12, J27, J28_Rel_Ch1, J28_Rel_Ch2, J28_Rel_Ch3, J28_Rel_Ch4, J28_Rel_Ch5, J28_Rel_Ch6, J28_Rel_Ch7, J28_Rel_Ch8, J31</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>K1, K2_Rel_Ch1, K2_Rel_Ch2, K2_Rel_Ch3, K2_Rel_Ch4, K2_Rel_Ch5, K2_Rel_Ch6, K2_Rel_Ch7, K2_Rel_Ch8</t>
+  </si>
+  <si>
     <t>C13</t>
   </si>
   <si>
-    <t>C14, C16, C32</t>
-  </si>
-  <si>
-    <t>C15, C17, C25, C31</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29, C36</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C33, C34</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D5, D6, D7, D8, D28</t>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D12, D14, D16, D18, D20, D25, D27</t>
+  </si>
+  <si>
+    <t>D10, D13, D15, D17, D19, D21, D22</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>D10, D13, D15, D17, D19, D21, D22</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12, D14, D16, D18, D20, D25, D27</t>
-  </si>
-  <si>
-    <t>D23</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
-    <t>D26</t>
+    <t>MP1, MP2, MP3, MP4</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>MD1</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>J1, J2, J3, J4, J5, J6, J7, J8, J9, J10, J11, J13, J14, J21, J22, J25, J26</t>
-  </si>
-  <si>
-    <t>J12, J27, J28_Rel_Ch1, J28_Rel_Ch2, J28_Rel_Ch3, J28_Rel_Ch4, J28_Rel_Ch5, J28_Rel_Ch6, J28_Rel_Ch7, J28_Rel_Ch8, J31</t>
-  </si>
-  <si>
-    <t>J15, J30</t>
-  </si>
-  <si>
-    <t>J16</t>
+    <t>X1, X2, X3, X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19, X20, X21, X22, X23, X24</t>
+  </si>
+  <si>
+    <t>U6, U7</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>U5</t>
   </si>
   <si>
     <t>J29</t>
   </si>
   <si>
-    <t>K1, K2_Rel_Ch1, K2_Rel_Ch2, K2_Rel_Ch3, K2_Rel_Ch4, K2_Rel_Ch5, K2_Rel_Ch6, K2_Rel_Ch7, K2_Rel_Ch8</t>
-  </si>
-  <si>
-    <t>LS1</t>
-  </si>
-  <si>
-    <t>MD1</t>
-  </si>
-  <si>
-    <t>MP1, MP2, MP3, MP4</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>R1, R31, R32, R59, R60, R61, R62, R63, R64, R66, R67, R68</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3, R29, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50</t>
-  </si>
-  <si>
-    <t>R5, R6, R22</t>
-  </si>
-  <si>
-    <t>R7, R9, R10, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R23, R24, R25</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R27, R28</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>R33, R34</t>
-  </si>
-  <si>
-    <t>R51, R52, R53, R54, R56, R57, R58, R65, R73, R74, R75, R76, R77</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>RN1</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6, U7</t>
-  </si>
-  <si>
     <t>U8, U9</t>
   </si>
   <si>
-    <t>X1, X2, X3, X4, X5, X6, X7, X8, X9, X10, X11, X12, X13, X14, X15, X16, X17, X18, X19, X20, X21, X22, X23, X24</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>1µF</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>4.7µF</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
     <t>22pF</t>
   </si>
   <si>
-    <t>10µF</t>
+    <t>47pF</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>1µF</t>
-  </si>
-  <si>
     <t>100pF</t>
   </si>
   <si>
-    <t>4.7µF</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>47pF</t>
+    <t>ATS080BSM-1</t>
+  </si>
+  <si>
+    <t>FT230XS</t>
   </si>
   <si>
     <t>M3, Length 5mm</t>
   </si>
   <si>
+    <t>MC-306 32.7680K-A3: ROHS</t>
+  </si>
+  <si>
     <t>Pin List 1x2</t>
   </si>
   <si>
-    <t>MC-306 32.7680K-A3: ROHS</t>
-  </si>
-  <si>
-    <t>ATS080BSM-1</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
-    <t>FT230XS</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>1k0</t>
+  </si>
+  <si>
+    <t>1k5</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
     <t>10uF</t>
   </si>
   <si>
+    <t>22R</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>270R</t>
+  </si>
+  <si>
+    <t>330R</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>4610X-101-103LF</t>
+  </si>
+  <si>
+    <t>100000Ohm, 250mW</t>
+  </si>
+  <si>
+    <t>8240136</t>
+  </si>
+  <si>
+    <t>68611014422</t>
+  </si>
+  <si>
+    <t>430182043816</t>
+  </si>
+  <si>
+    <t>691413720002B</t>
+  </si>
+  <si>
+    <t>691413720003B</t>
+  </si>
+  <si>
+    <t>693072010801</t>
+  </si>
+  <si>
+    <t>BAT54HT1G</t>
+  </si>
+  <si>
+    <t>CMT-0502-75-SMT-TR</t>
+  </si>
+  <si>
+    <t>EE2-3NUH-L</t>
+  </si>
+  <si>
     <t>EEEFK1H220P</t>
   </si>
   <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>8240136</t>
+    <t>FDV305N</t>
+  </si>
+  <si>
+    <t>IRF4905</t>
+  </si>
+  <si>
+    <t>JS102011SCQN</t>
+  </si>
+  <si>
+    <t>LED_B</t>
+  </si>
+  <si>
+    <t>LED_G</t>
+  </si>
+  <si>
+    <t>LED_R</t>
+  </si>
+  <si>
+    <t>LED_W</t>
+  </si>
+  <si>
+    <t>LED_Y</t>
   </si>
   <si>
     <t>LYR976</t>
   </si>
   <si>
-    <t>LED_Y</t>
-  </si>
-  <si>
-    <t>BAT54HT1G</t>
-  </si>
-  <si>
-    <t>LED_W</t>
-  </si>
-  <si>
-    <t>LED_G</t>
-  </si>
-  <si>
-    <t>LED_R</t>
-  </si>
-  <si>
-    <t>LED_B</t>
+    <t>MCP79411</t>
+  </si>
+  <si>
+    <t>MIKROBUS HOST CONN.</t>
+  </si>
+  <si>
+    <t>PIC32MX795F512L</t>
+  </si>
+  <si>
+    <t>RN4678-V/RM111</t>
   </si>
   <si>
     <t>RUEF250</t>
   </si>
   <si>
-    <t>691413720002B</t>
-  </si>
-  <si>
-    <t>691413720003B</t>
-  </si>
-  <si>
-    <t>68611014422</t>
-  </si>
-  <si>
-    <t>693072010801</t>
+    <t>S9141-45R</t>
+  </si>
+  <si>
+    <t>SN74HCS596QPWRQ1_1</t>
+  </si>
+  <si>
+    <t>Tac_Contact_Prog</t>
+  </si>
+  <si>
+    <t>TSR 2-2433</t>
   </si>
   <si>
     <t>UJC-HP2-3-SMT-TR</t>
   </si>
   <si>
-    <t>EE2-3NUH-L</t>
-  </si>
-  <si>
-    <t>CMT-0502-75-SMT-TR</t>
-  </si>
-  <si>
-    <t>RN4678-V/RM111</t>
-  </si>
-  <si>
-    <t>Tac_Contact_Prog</t>
-  </si>
-  <si>
-    <t>IRF4905</t>
-  </si>
-  <si>
-    <t>1k0</t>
-  </si>
-  <si>
-    <t>470R</t>
-  </si>
-  <si>
-    <t>270R</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>22R</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>2k2</t>
-  </si>
-  <si>
-    <t>1k5</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>330R</t>
-  </si>
-  <si>
-    <t>100000Ohm, 250mW</t>
-  </si>
-  <si>
-    <t>4610X-101-103LF</t>
-  </si>
-  <si>
-    <t>430182043816</t>
-  </si>
-  <si>
-    <t>JS102011SCQN</t>
-  </si>
-  <si>
-    <t>FDV305N</t>
-  </si>
-  <si>
-    <t>MIKROBUS HOST CONN.</t>
-  </si>
-  <si>
-    <t>PIC32MX795F512L</t>
-  </si>
-  <si>
-    <t>MCP79411</t>
-  </si>
-  <si>
-    <t>TSR 2-2433</t>
-  </si>
-  <si>
-    <t>SN74HCS596QPWRQ1_1</t>
-  </si>
-  <si>
     <t>ULN2003ADR</t>
   </si>
   <si>
-    <t>S9141-45R</t>
-  </si>
-  <si>
     <t>Manufacturer 1</t>
   </si>
   <si>
+    <t>Yageo</t>
+  </si>
+  <si>
     <t>TDK</t>
   </si>
   <si>
+    <t>Walsin Technologies</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>Walsin Technologies</t>
-  </si>
-  <si>
     <t>Wurth Electronics</t>
   </si>
   <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>ON Semiconductor / Fairchild</t>
+  </si>
+  <si>
+    <t>Same Sky</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>ITT C&amp;K</t>
+  </si>
+  <si>
+    <t>QT-Brightek</t>
+  </si>
+  <si>
+    <t>Inolux</t>
+  </si>
+  <si>
     <t>QT Brightek</t>
   </si>
   <si>
-    <t>QT-Brightek</t>
-  </si>
-  <si>
-    <t>ON Semiconductor / Fairchild</t>
-  </si>
-  <si>
-    <t>Inolux</t>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>mikroElektronika</t>
   </si>
   <si>
     <t>Littelfuse</t>
   </si>
   <si>
-    <t>Same Sky</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>Epson</t>
-  </si>
-  <si>
-    <t>CTS</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>ITT C&amp;K</t>
-  </si>
-  <si>
-    <t>mikroElektronika</t>
-  </si>
-  <si>
-    <t>FTDI</t>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
   </si>
   <si>
     <t>Traco Power</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>Harwin</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>RC0805FR-071KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-071K5L</t>
+  </si>
+  <si>
+    <t>C1608X5R1H105K080AB</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>C1608X5R1C475K080AC</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>C1608X7R1H103K080AA</t>
+  </si>
+  <si>
+    <t>0603N100J500CT</t>
+  </si>
+  <si>
+    <t>C1608X5R1A106K080AC</t>
+  </si>
+  <si>
     <t>C1608C0G1H220J080AA</t>
   </si>
   <si>
-    <t>C1608X5R1A106K080AC</t>
+    <t>RC0603FR-0722RL</t>
+  </si>
+  <si>
+    <t>RC0805FR-0727RL</t>
+  </si>
+  <si>
+    <t>C1608C0G1H470J080AA</t>
   </si>
   <si>
     <t>CGA3E2X7R1H104K080AA</t>
   </si>
   <si>
+    <t>CGA3E2C0G1H101J080AA</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07220RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07270RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07330RL</t>
+  </si>
+  <si>
+    <t>RC0805FR-07470RL</t>
+  </si>
+  <si>
+    <t>ERJ-S08F66R5V</t>
+  </si>
+  <si>
     <t>EEE-FK1H220P</t>
   </si>
   <si>
-    <t>C1608X7R1H103K080AA</t>
-  </si>
-  <si>
-    <t>C1608X5R1H105K080AB</t>
-  </si>
-  <si>
-    <t>CGA3E2C0G1H101J080AA</t>
-  </si>
-  <si>
-    <t>C1608X5R1C475K080AC</t>
-  </si>
-  <si>
-    <t>0603N100J500CT</t>
-  </si>
-  <si>
-    <t>C1608C0G1H470J080AA</t>
+    <t>FT230XS-R</t>
+  </si>
+  <si>
+    <t>IRF4905PBF</t>
+  </si>
+  <si>
+    <t>QBLP631-2IB5</t>
+  </si>
+  <si>
+    <t>QBLP631-YG15</t>
+  </si>
+  <si>
+    <t>QBLP631-R5-2897</t>
+  </si>
+  <si>
+    <t>IN-S85AT5UW</t>
   </si>
   <si>
     <t>QBLP631-Y5-2897</t>
   </si>
   <si>
-    <t>IN-S85AT5UW</t>
-  </si>
-  <si>
-    <t>QBLP631-2IB5</t>
-  </si>
-  <si>
-    <t>QBLP631-R5-2897</t>
-  </si>
-  <si>
     <t>9774020360R</t>
   </si>
   <si>
     <t>MC-30632.7680K-A3:ROHS</t>
   </si>
   <si>
-    <t>RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-071KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-07470RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-07270RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-07220RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0722RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-07100RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-072K2L</t>
-  </si>
-  <si>
-    <t>RC0603FR-071K5L</t>
-  </si>
-  <si>
-    <t>RC0805FR-0727RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-07330RL</t>
+    <t>MCP79411-I/MS</t>
   </si>
   <si>
     <t>MIKROE-4677</t>
@@ -707,10 +728,7 @@
     <t>PIC32MX795F512L-80I/PT</t>
   </si>
   <si>
-    <t>MCP79411-I/MS</t>
-  </si>
-  <si>
-    <t>FT230XS-R</t>
+    <t>SN74HCS596QPWRQ1</t>
   </si>
   <si>
     <t>TSR2-2433</t>
@@ -722,91 +740,181 @@
     <t>Supplier 1</t>
   </si>
   <si>
-    <t>ETML</t>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Mouser</t>
   </si>
   <si>
     <t>Digikey</t>
   </si>
   <si>
+    <t>Distrelec</t>
+  </si>
+  <si>
+    <t>Heisener</t>
+  </si>
+  <si>
     <t>N.A.</t>
   </si>
   <si>
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>FAB.0603_C 22pF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 10uF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 100n</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 10nF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 1uF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 100pF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 4.7uF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C 10pF</t>
-  </si>
-  <si>
-    <t>FAB.0603_C47pF</t>
+    <t>82K7536</t>
+  </si>
+  <si>
+    <t>98K7356</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1H105K</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1C475KAC</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>445-1311-1-ND</t>
+  </si>
+  <si>
+    <t>1292-1471-1-ND</t>
+  </si>
+  <si>
+    <t>810-C1608X5R1A106K</t>
+  </si>
+  <si>
+    <t>810-C1608C0G1H220J</t>
+  </si>
+  <si>
+    <t>26M6754</t>
+  </si>
+  <si>
+    <t>49AK3169</t>
+  </si>
+  <si>
+    <t>55T0097</t>
+  </si>
+  <si>
+    <t>810-CGA3E2X7R1H104K</t>
+  </si>
+  <si>
+    <t>30180406</t>
+  </si>
+  <si>
+    <t>80X3162</t>
+  </si>
+  <si>
+    <t>98K7334</t>
+  </si>
+  <si>
+    <t>98K7373</t>
+  </si>
+  <si>
+    <t>98K7385</t>
+  </si>
+  <si>
+    <t>98K7391</t>
+  </si>
+  <si>
+    <t>311-470CRCT-ND</t>
+  </si>
+  <si>
+    <t>62J2940</t>
+  </si>
+  <si>
+    <t>710-8240136</t>
+  </si>
+  <si>
+    <t>710-68611014422</t>
+  </si>
+  <si>
+    <t>732-7004-1-ND</t>
+  </si>
+  <si>
+    <t>732-691413720002B-ND</t>
+  </si>
+  <si>
+    <t>732-691413720003B-ND</t>
+  </si>
+  <si>
+    <t>732-3820-1-ND</t>
+  </si>
+  <si>
+    <t>774-ATS080BSM-1</t>
+  </si>
+  <si>
+    <t>83H6419</t>
+  </si>
+  <si>
+    <t>490-CMT-0502-75SMTTR</t>
+  </si>
+  <si>
+    <t>80-EE2-3NUH-L</t>
+  </si>
+  <si>
+    <t>85AK4230</t>
+  </si>
+  <si>
+    <t>512-FDV305N</t>
+  </si>
+  <si>
+    <t>83T7087</t>
+  </si>
+  <si>
+    <t>63J7300</t>
+  </si>
+  <si>
+    <t>1516-QBLP631-2IB5CT-ND</t>
+  </si>
+  <si>
+    <t>1516-QBLP631-YG15CT-ND</t>
+  </si>
+  <si>
+    <t>1516-QBLP631-R5-2897CT-ND</t>
+  </si>
+  <si>
+    <t>1830-1080-1-ND</t>
   </si>
   <si>
     <t>1516-QBLP631-Y5-2897CT-ND</t>
   </si>
   <si>
-    <t>1830-1080-1-ND</t>
-  </si>
-  <si>
-    <t>1516-QBLP631-2IB5CT-ND</t>
-  </si>
-  <si>
-    <t>1516-QBLP631-R5-2897CT-ND</t>
-  </si>
-  <si>
-    <t>FAB.0805_R 10k</t>
-  </si>
-  <si>
-    <t>FAB.0805_R 1k0</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 10k</t>
-  </si>
-  <si>
-    <t>FAB.0805_R 470R</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 270R</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 220R</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 22R</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 100R</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 2k2</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 1k5</t>
-  </si>
-  <si>
-    <t>FAB.0805_R 27R</t>
-  </si>
-  <si>
-    <t>FAB.0603_R 330R</t>
+    <t>22AC5236</t>
+  </si>
+  <si>
+    <t>SER4306CT-ND</t>
+  </si>
+  <si>
+    <t>932-MIKROE-4677</t>
+  </si>
+  <si>
+    <t>53R2068</t>
+  </si>
+  <si>
+    <t>650-RUEF250</t>
+  </si>
+  <si>
+    <t>855-S9141-45R</t>
+  </si>
+  <si>
+    <t>296-SN74HCS596QPWRQ1CT-ND</t>
+  </si>
+  <si>
+    <t>495-TSR2-2433</t>
+  </si>
+  <si>
+    <t>179-UJC-HP2-3-SMT-TR</t>
+  </si>
+  <si>
+    <t>595-ULN2003ADR</t>
   </si>
   <si>
     <t>Supplier Order Qty 1</t>
@@ -816,6 +924,18 @@
   </si>
   <si>
     <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>CKN10877CT-ND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ERJ-S08F66R5V-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579-RN4678-V/RM111 </t>
   </si>
 </sst>
 </file>
@@ -1632,16 +1752,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1942,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1964,10 +2084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="74" t="s">
         <v>31</v>
       </c>
@@ -2009,7 +2129,7 @@
       <c r="K2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2035,7 +2155,7 @@
       <c r="K3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="84" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2056,25 +2176,25 @@
         <v>170</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,26 +2206,32 @@
         <v>106</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>171</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G5" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="62"/>
+        <v>241</v>
+      </c>
+      <c r="J5" s="58">
+        <v>1</v>
+      </c>
+      <c r="K5" s="60">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="L5" s="62">
+        <v>3.2499999999999999E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
@@ -2116,26 +2242,32 @@
         <v>107</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>171</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G6" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="62"/>
+        <v>242</v>
+      </c>
+      <c r="J6" s="58">
+        <v>10</v>
+      </c>
+      <c r="K6" s="60">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="L6" s="62">
+        <v>8.1189999999999998E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
@@ -2146,74 +2278,104 @@
         <v>108</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G7" s="57">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="62"/>
+        <v>243</v>
+      </c>
+      <c r="J7" s="58">
+        <v>4</v>
+      </c>
+      <c r="K7" s="60">
+        <v>0.12178</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0.48712</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="57" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" s="56" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>171</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G8" s="57">
-        <v>1</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="58">
+        <v>10</v>
+      </c>
+      <c r="K8" s="60">
+        <v>8.9300000000000004E-3</v>
+      </c>
+      <c r="L8" s="62">
+        <v>8.931E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="57" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" s="56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>172</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G9" s="57">
-        <v>1</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" s="58">
+        <v>2</v>
+      </c>
+      <c r="K9" s="60">
+        <v>0.17049</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0.34098000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
@@ -2221,29 +2383,35 @@
         <v>51</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>171</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G10" s="57">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="62"/>
+        <v>246</v>
+      </c>
+      <c r="J10" s="58">
+        <v>18</v>
+      </c>
+      <c r="K10" s="60">
+        <v>7.3099999999999997E-3</v>
+      </c>
+      <c r="L10" s="62">
+        <v>0.13152</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
@@ -2251,29 +2419,35 @@
         <v>52</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G11" s="57">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="62"/>
+        <v>247</v>
+      </c>
+      <c r="J11" s="58">
+        <v>12</v>
+      </c>
+      <c r="K11" s="60">
+        <v>1.299E-2</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0.15587999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
@@ -2281,29 +2455,35 @@
         <v>53</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G12" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="62"/>
+        <v>248</v>
+      </c>
+      <c r="J12" s="58">
+        <v>3</v>
+      </c>
+      <c r="K12" s="60">
+        <v>8.1189999999999998E-2</v>
+      </c>
+      <c r="L12" s="62">
+        <v>0.24356</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
@@ -2311,29 +2491,35 @@
         <v>54</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G13" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="62"/>
+        <v>249</v>
+      </c>
+      <c r="J13" s="58">
+        <v>1</v>
+      </c>
+      <c r="K13" s="60">
+        <v>8.1189999999999998E-2</v>
+      </c>
+      <c r="L13" s="62">
+        <v>8.1189999999999998E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
@@ -2341,29 +2527,35 @@
         <v>55</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="62"/>
+        <v>250</v>
+      </c>
+      <c r="J14" s="58">
+        <v>2</v>
+      </c>
+      <c r="K14" s="60">
+        <v>0.19485</v>
+      </c>
+      <c r="L14" s="62">
+        <v>0.38969999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
@@ -2371,129 +2563,179 @@
         <v>56</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G15" s="57">
         <v>2</v>
       </c>
       <c r="H15" s="58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="62"/>
+        <v>251</v>
+      </c>
+      <c r="J15" s="58">
+        <v>2</v>
+      </c>
+      <c r="K15" s="60">
+        <v>8.1189999999999998E-2</v>
+      </c>
+      <c r="L15" s="62">
+        <v>0.16236999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="57">
+        <v>22</v>
+      </c>
       <c r="D16" s="56" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="G16" s="57">
-        <v>9</v>
-      </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="J16" s="58">
+        <v>10</v>
+      </c>
+      <c r="K16" s="60">
+        <v>7.3099999999999997E-3</v>
+      </c>
+      <c r="L16" s="62">
+        <v>7.3069999999999996E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="57">
+        <v>27</v>
+      </c>
       <c r="D17" s="56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G17" s="57">
-        <v>1</v>
-      </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="58">
+        <v>2</v>
+      </c>
+      <c r="K17" s="60">
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="L17" s="62">
+        <v>9.7400000000000004E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="D18" s="56" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G18" s="57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H18" s="58" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="62"/>
+        <v>254</v>
+      </c>
+      <c r="J18" s="58">
+        <v>2</v>
+      </c>
+      <c r="K18" s="60">
+        <v>5.6800000000000002E-3</v>
+      </c>
+      <c r="L18" s="62">
+        <v>1.137E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="57" t="s">
+        <v>117</v>
+      </c>
       <c r="D19" s="56" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="G19" s="57">
-        <v>1</v>
-      </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="58">
+        <v>11</v>
+      </c>
+      <c r="K19" s="60">
+        <v>3.5720000000000002E-2</v>
+      </c>
+      <c r="L19" s="62">
+        <v>0.39294000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
@@ -2502,182 +2744,248 @@
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="56" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G20" s="57">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="62"/>
+        <v>256</v>
+      </c>
+      <c r="J20" s="58">
+        <v>1</v>
+      </c>
+      <c r="K20" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="62">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="57" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" s="56" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G21" s="57">
         <v>1</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="62"/>
+        <v>257</v>
+      </c>
+      <c r="J21" s="58">
+        <v>1</v>
+      </c>
+      <c r="K21" s="60">
+        <v>1.055E-2</v>
+      </c>
+      <c r="L21" s="62">
+        <v>1.055E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="57">
+        <v>100</v>
+      </c>
       <c r="D22" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G22" s="57">
         <v>1</v>
       </c>
       <c r="H22" s="58" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="62"/>
+        <v>258</v>
+      </c>
+      <c r="J22" s="58">
+        <v>10</v>
+      </c>
+      <c r="K22" s="60">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="L22" s="62">
+        <v>8.1189999999999998E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="57">
+        <v>220</v>
+      </c>
       <c r="D23" s="56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G23" s="57">
         <v>1</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="62"/>
+        <v>259</v>
+      </c>
+      <c r="J23" s="58">
+        <v>10</v>
+      </c>
+      <c r="K23" s="60">
+        <v>7.3099999999999997E-3</v>
+      </c>
+      <c r="L23" s="62">
+        <v>7.3069999999999996E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="57">
+        <v>270</v>
+      </c>
       <c r="D24" s="56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="G24" s="57">
-        <v>1</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="J24" s="58">
+        <v>16</v>
+      </c>
+      <c r="K24" s="60">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="L24" s="62">
+        <v>2.598E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="57">
+        <v>330</v>
+      </c>
       <c r="D25" s="56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="G25" s="57">
-        <v>17</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="J25" s="58">
+        <v>13</v>
+      </c>
+      <c r="K25" s="60">
+        <v>7.3099999999999997E-3</v>
+      </c>
+      <c r="L25" s="62">
+        <v>9.4990000000000005E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="57">
+        <v>470</v>
+      </c>
       <c r="D26" s="56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="G26" s="57">
-        <v>11</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="J26" s="58">
+        <v>10</v>
+      </c>
+      <c r="K26" s="60">
+        <v>9.7400000000000004E-3</v>
+      </c>
+      <c r="L26" s="62">
+        <v>9.7420000000000007E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
@@ -2686,22 +2994,32 @@
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="56" t="s">
         <v>174</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G27" s="57">
-        <v>2</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" s="58">
+        <v>1</v>
+      </c>
+      <c r="K27" s="60">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="L27" s="62">
+        <v>0.11609999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
@@ -2710,22 +3028,32 @@
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="G28" s="57">
         <v>1</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="62"/>
+      <c r="H28" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" t="s">
+        <v>298</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="60">
+        <v>0.17049</v>
+      </c>
+      <c r="L28" s="62">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
@@ -2734,22 +3062,32 @@
       </c>
       <c r="C29" s="57"/>
       <c r="D29" s="56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G29" s="57">
-        <v>1</v>
-      </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="62"/>
+        <v>9</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="58">
+        <v>9</v>
+      </c>
+      <c r="K29" s="60">
+        <v>1.04</v>
+      </c>
+      <c r="L29" s="62">
+        <v>9.35</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
@@ -2758,18 +3096,32 @@
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+        <v>141</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>141</v>
+      </c>
       <c r="G30" s="57">
-        <v>9</v>
-      </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" s="58">
+        <v>2</v>
+      </c>
+      <c r="K30" s="60">
+        <v>1.24</v>
+      </c>
+      <c r="L30" s="62">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
@@ -2778,22 +3130,32 @@
       </c>
       <c r="C31" s="57"/>
       <c r="D31" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G31" s="57">
         <v>1</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="62"/>
+      <c r="H31" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="58">
+        <v>1</v>
+      </c>
+      <c r="K31" s="60">
+        <v>0.43029000000000001</v>
+      </c>
+      <c r="L31" s="62">
+        <v>0.43029000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
@@ -2802,94 +3164,136 @@
       </c>
       <c r="C32" s="57"/>
       <c r="D32" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" s="57">
-        <v>1</v>
-      </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="62"/>
+        <v>17</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="58">
+        <v>17</v>
+      </c>
+      <c r="K32" s="60">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="L32" s="62">
+        <v>9.77</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="57" t="s">
-        <v>115</v>
-      </c>
+      <c r="C33" s="57"/>
       <c r="D33" s="56" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="G33" s="57">
-        <v>4</v>
-      </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" s="58">
+        <v>11</v>
+      </c>
+      <c r="K33" s="60">
+        <v>0.96206000000000003</v>
+      </c>
+      <c r="L33" s="62">
+        <v>10.58</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>116</v>
-      </c>
+      <c r="C34" s="57"/>
       <c r="D34" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>145</v>
+      </c>
       <c r="G34" s="57">
         <v>1</v>
       </c>
       <c r="H34" s="58" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="62"/>
+        <v>269</v>
+      </c>
+      <c r="J34" s="58">
+        <v>1</v>
+      </c>
+      <c r="K34" s="60">
+        <v>2.77</v>
+      </c>
+      <c r="L34" s="62">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="57" t="s">
+        <v>119</v>
+      </c>
       <c r="D35" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+        <v>119</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>119</v>
+      </c>
       <c r="G35" s="57">
         <v>1</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="62"/>
+      <c r="H35" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="58">
+        <v>1</v>
+      </c>
+      <c r="K35" s="60">
+        <v>0.41404999999999997</v>
+      </c>
+      <c r="L35" s="62">
+        <v>0.41404999999999997</v>
+      </c>
     </row>
     <row r="36" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
@@ -2898,130 +3302,168 @@
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+        <v>146</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="G36" s="57">
         <v>1</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="62"/>
+      <c r="H36" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" s="58">
+        <v>1</v>
+      </c>
+      <c r="K36" s="60">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="L36" s="62">
+        <v>3.4099999999999998E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>117</v>
-      </c>
+      <c r="C37" s="57"/>
       <c r="D37" s="56" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="G37" s="57">
         <v>1</v>
       </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="62"/>
+      <c r="H37" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" s="58">
+        <v>1</v>
+      </c>
+      <c r="K37" s="60">
+        <v>1.57</v>
+      </c>
+      <c r="L37" s="62">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="38" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="57" t="s">
-        <v>118</v>
-      </c>
+      <c r="C38" s="57"/>
       <c r="D38" s="56" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="G38" s="57">
-        <v>1</v>
-      </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="62"/>
+        <v>9</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" s="58">
+        <v>9</v>
+      </c>
+      <c r="K38" s="60">
+        <v>2.04</v>
+      </c>
+      <c r="L38" s="62">
+        <v>18.34</v>
+      </c>
     </row>
     <row r="39" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="57" t="s">
-        <v>119</v>
-      </c>
+      <c r="C39" s="57"/>
       <c r="D39" s="56" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G39" s="57">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H39" s="58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="J39" s="58"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="62"/>
+        <v>274</v>
+      </c>
+      <c r="J39" s="58">
+        <v>1</v>
+      </c>
+      <c r="K39" s="60">
+        <v>8.1189999999999998E-2</v>
+      </c>
+      <c r="L39" s="62">
+        <v>8.1189999999999998E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="57" t="s">
-        <v>120</v>
-      </c>
+      <c r="C40" s="57"/>
       <c r="D40" s="56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G40" s="57">
         <v>1</v>
       </c>
       <c r="H40" s="58" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="62"/>
+        <v>275</v>
+      </c>
+      <c r="J40" s="58">
+        <v>1</v>
+      </c>
+      <c r="K40" s="60">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="L40" s="62">
+        <v>0.34910000000000002</v>
+      </c>
     </row>
     <row r="41" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
@@ -3029,319 +3471,379 @@
         <v>82</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F41" s="56" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G41" s="57">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="62"/>
+        <v>276</v>
+      </c>
+      <c r="J41" s="58">
+        <v>1</v>
+      </c>
+      <c r="K41" s="60">
+        <v>1.78</v>
+      </c>
+      <c r="L41" s="62">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="42" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="57">
-        <v>470</v>
-      </c>
+      <c r="C42" s="57"/>
       <c r="D42" s="56" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" s="56" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G42" s="57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="J42" s="58"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="62"/>
+        <v>277</v>
+      </c>
+      <c r="J42" s="58">
+        <v>1</v>
+      </c>
+      <c r="K42" s="60">
+        <v>0.86058000000000001</v>
+      </c>
+      <c r="L42" s="62">
+        <v>0.86058000000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="57">
-        <v>270</v>
-      </c>
+      <c r="C43" s="57"/>
       <c r="D43" s="56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="G43" s="57">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H43" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="I43" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="J43" s="58"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="62"/>
+        <v>236</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="60">
+        <v>0.87</v>
+      </c>
+      <c r="L43" s="62">
+        <v>7.36</v>
+      </c>
     </row>
     <row r="44" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="57">
-        <v>220</v>
-      </c>
+      <c r="C44" s="57"/>
       <c r="D44" s="56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E44" s="56" t="s">
         <v>184</v>
       </c>
       <c r="F44" s="56" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G44" s="57">
         <v>1</v>
       </c>
       <c r="H44" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I44" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="J44" s="58"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="62"/>
+        <v>278</v>
+      </c>
+      <c r="J44" s="58">
+        <v>1</v>
+      </c>
+      <c r="K44" s="60">
+        <v>0.25047000000000003</v>
+      </c>
+      <c r="L44" s="62">
+        <v>0.25047000000000003</v>
+      </c>
     </row>
     <row r="45" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="57">
-        <v>22</v>
-      </c>
+      <c r="C45" s="57"/>
       <c r="D45" s="56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E45" s="56" t="s">
         <v>184</v>
       </c>
       <c r="F45" s="56" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G45" s="57">
         <v>1</v>
       </c>
       <c r="H45" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="J45" s="58"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="62"/>
+        <v>279</v>
+      </c>
+      <c r="J45" s="58">
+        <v>1</v>
+      </c>
+      <c r="K45" s="60">
+        <v>0.24356</v>
+      </c>
+      <c r="L45" s="62">
+        <v>0.24356</v>
+      </c>
     </row>
     <row r="46" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="B46" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="57">
-        <v>100</v>
-      </c>
+      <c r="C46" s="57"/>
       <c r="D46" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E46" s="56" t="s">
         <v>184</v>
       </c>
       <c r="F46" s="56" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G46" s="57">
         <v>1</v>
       </c>
       <c r="H46" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="62"/>
+        <v>280</v>
+      </c>
+      <c r="J46" s="58">
+        <v>1</v>
+      </c>
+      <c r="K46" s="60">
+        <v>0.17860999999999999</v>
+      </c>
+      <c r="L46" s="62">
+        <v>0.17860999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="B47" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>121</v>
-      </c>
+      <c r="C47" s="57"/>
       <c r="D47" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G47" s="57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="J47" s="58"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="62"/>
+        <v>281</v>
+      </c>
+      <c r="J47" s="58">
+        <v>10</v>
+      </c>
+      <c r="K47" s="60">
+        <v>0.12178</v>
+      </c>
+      <c r="L47" s="62">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="48" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
       <c r="B48" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="57" t="s">
-        <v>122</v>
-      </c>
+      <c r="C48" s="57"/>
       <c r="D48" s="56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E48" s="56" t="s">
         <v>184</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G48" s="57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H48" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="J48" s="58"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="62"/>
+        <v>282</v>
+      </c>
+      <c r="J48" s="58">
+        <v>10</v>
+      </c>
+      <c r="K48" s="60">
+        <v>0.17212</v>
+      </c>
+      <c r="L48" s="62">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="49" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
       <c r="B49" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="57">
-        <v>27</v>
-      </c>
+      <c r="C49" s="57"/>
       <c r="D49" s="56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F49" s="56" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G49" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="58" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" s="58"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="62"/>
+        <v>282</v>
+      </c>
+      <c r="J49" s="58">
+        <v>1</v>
+      </c>
+      <c r="K49" s="60">
+        <v>0.25168000000000001</v>
+      </c>
+      <c r="L49" s="62">
+        <v>0.25168000000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="57">
-        <v>330</v>
+      <c r="C50" s="57" t="s">
+        <v>121</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F50" s="56" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G50" s="57">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H50" s="58" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="62"/>
+        <v>283</v>
+      </c>
+      <c r="J50" s="58">
+        <v>4</v>
+      </c>
+      <c r="K50" s="60">
+        <v>0.48387000000000002</v>
+      </c>
+      <c r="L50" s="62">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="51" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="57"/>
       <c r="B51" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="57" t="s">
+        <v>122</v>
+      </c>
       <c r="D51" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+        <v>122</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="56" t="s">
+        <v>226</v>
+      </c>
       <c r="G51" s="57">
         <v>1</v>
       </c>
-      <c r="H51" s="58"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="62"/>
+      <c r="H51" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="J51" s="58">
+        <v>1</v>
+      </c>
+      <c r="K51" s="60">
+        <v>2.16</v>
+      </c>
+      <c r="L51" s="62">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="52" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
@@ -3353,19 +3855,29 @@
         <v>159</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F52" s="56" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="G52" s="57">
         <v>1</v>
       </c>
-      <c r="H52" s="58"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="62"/>
+      <c r="H52" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="J52" s="58">
+        <v>1</v>
+      </c>
+      <c r="K52" s="60">
+        <v>0.8821</v>
+      </c>
+      <c r="L52" s="62">
+        <v>0.8821</v>
+      </c>
     </row>
     <row r="53" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
@@ -3377,19 +3889,29 @@
         <v>160</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F53" s="56" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="G53" s="57">
         <v>1</v>
       </c>
-      <c r="H53" s="58"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="62"/>
+      <c r="H53" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="J53" s="58">
+        <v>1</v>
+      </c>
+      <c r="K53" s="60">
+        <v>35.72</v>
+      </c>
+      <c r="L53" s="62">
+        <v>35.72</v>
+      </c>
     </row>
     <row r="54" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
@@ -3401,36 +3923,52 @@
         <v>161</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F54" s="56" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="G54" s="57">
-        <v>11</v>
-      </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="J54" s="58">
+        <v>1</v>
+      </c>
+      <c r="K54" s="60">
+        <v>3.26</v>
+      </c>
+      <c r="L54" s="62">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="55" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="57"/>
       <c r="B55" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="57" t="s">
+        <v>123</v>
+      </c>
       <c r="D55" s="56" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
       <c r="G55" s="57">
         <v>1</v>
       </c>
-      <c r="H55" s="58"/>
-      <c r="I55" s="56"/>
+      <c r="H55" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>239</v>
+      </c>
       <c r="J55" s="58"/>
       <c r="K55" s="60"/>
       <c r="L55" s="62"/>
@@ -3442,22 +3980,32 @@
       </c>
       <c r="C56" s="57"/>
       <c r="D56" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F56" s="56" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="G56" s="57">
         <v>1</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="62"/>
+      <c r="H56" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" s="60">
+        <v>10.71</v>
+      </c>
+      <c r="L56" s="62">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="57" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="57"/>
@@ -3466,22 +4014,32 @@
       </c>
       <c r="C57" s="57"/>
       <c r="D57" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F57" s="56" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="G57" s="57">
         <v>1</v>
       </c>
-      <c r="H57" s="58"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="62"/>
+      <c r="H57" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I57" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="J57" s="58">
+        <v>1</v>
+      </c>
+      <c r="K57" s="60">
+        <v>0.36534</v>
+      </c>
+      <c r="L57" s="62">
+        <v>0.36534</v>
+      </c>
     </row>
     <row r="58" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
@@ -3490,48 +4048,66 @@
       </c>
       <c r="C58" s="57"/>
       <c r="D58" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F58" s="56" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="G58" s="57">
-        <v>1</v>
-      </c>
-      <c r="H58" s="58"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="62"/>
+        <v>24</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="J58" s="58">
+        <v>24</v>
+      </c>
+      <c r="K58" s="60">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="L58" s="62">
+        <v>8.5299999999999994</v>
+      </c>
     </row>
     <row r="59" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
       <c r="B59" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="57" t="s">
-        <v>123</v>
-      </c>
+      <c r="C59" s="57"/>
       <c r="D59" s="56" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F59" s="56" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G59" s="57">
-        <v>1</v>
-      </c>
-      <c r="H59" s="58"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="J59" s="58">
+        <v>2</v>
+      </c>
+      <c r="K59" s="60">
+        <v>0.49524000000000001</v>
+      </c>
+      <c r="L59" s="62">
+        <v>0.99048000000000003</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="57"/>
@@ -3542,20 +4118,20 @@
       <c r="D60" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F60" s="56" t="s">
-        <v>225</v>
-      </c>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="57">
         <v>1</v>
       </c>
       <c r="H60" s="58"/>
       <c r="I60" s="56"/>
       <c r="J60" s="58"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="62"/>
+      <c r="K60" s="60">
+        <v>0</v>
+      </c>
+      <c r="L60" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="57"/>
@@ -3566,16 +4142,30 @@
       <c r="D61" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="E61" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="56" t="s">
+        <v>231</v>
+      </c>
       <c r="G61" s="57">
-        <v>2</v>
-      </c>
-      <c r="H61" s="58"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I61" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="J61" s="58">
+        <v>1</v>
+      </c>
+      <c r="K61" s="60">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="L61" s="62">
+        <v>9.5299999999999994</v>
+      </c>
     </row>
     <row r="62" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
@@ -3587,19 +4177,29 @@
         <v>168</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F62" s="56" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="57">
-        <v>2</v>
-      </c>
-      <c r="H62" s="58"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I62" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="J62" s="58">
+        <v>1</v>
+      </c>
+      <c r="K62" s="60">
+        <v>0.38157999999999997</v>
+      </c>
+      <c r="L62" s="62">
+        <v>0.38157999999999997</v>
+      </c>
     </row>
     <row r="63" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
@@ -3611,19 +4211,29 @@
         <v>169</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F63" s="56" t="s">
         <v>169</v>
       </c>
       <c r="G63" s="57">
-        <v>24</v>
-      </c>
-      <c r="H63" s="58"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H63" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="58">
+        <v>2</v>
+      </c>
+      <c r="K63" s="60">
+        <v>0.39782000000000001</v>
+      </c>
+      <c r="L63" s="62">
+        <v>0.79562999999999995</v>
+      </c>
     </row>
     <row r="64" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="67"/>
@@ -3639,7 +4249,7 @@
       <c r="K64" s="72"/>
       <c r="L64" s="73">
         <f>SUM(L5:L63)</f>
-        <v>0</v>
+        <v>148.66125</v>
       </c>
     </row>
     <row r="65" spans="1:12" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -3707,7 +4317,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A5:L63">
+  <conditionalFormatting sqref="A44:L63 A43:H43 J43:L43 A5:L27 A29:L42 A28:H28 J28:L28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A5="not fitted"</formula>
     </cfRule>
@@ -3856,15 +4466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="489c233d1c6f7eaaf9a5a2ed0dc16d76">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xmlns:ns3="bf2f2df3-a963-4452-b0e7-67dabc627c35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a339fc56d938ba660222ed7ffed24fbb" ns2:_="" ns3:_="">
     <xsd:import namespace="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
@@ -4061,15 +4662,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40B2241-1B29-4263-BD17-87BC8DE4E579}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3807B8-4C1F-4F57-98AA-41482CF598FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4086,4 +4688,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40B2241-1B29-4263-BD17-87BC8DE4E579}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>